--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2860728.92119276</v>
+        <v>2964908.55564383</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>94.56148769087646</v>
       </c>
       <c r="Y2" t="n">
-        <v>379.4657792522061</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>203.7902942242366</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.46084344268539</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>256.727352354685</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>332.1690792869419</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>56.06126958305316</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>184.1641512798903</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>64.37012338319005</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>169.4049510723442</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>110.928091294372</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>75.81375591394324</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>133.9838498346386</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>22.65115569188744</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>14.73874327217528</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>52.57516893522976</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,19 +2052,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>140.7215037338438</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>202.9133247598017</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>185.4048731212365</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>95.12712756824324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>71.39698738222857</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>145.7322552292198</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>87.71169339385442</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -3001,16 +3003,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>90.14863908058143</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>27.68426743653215</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.0235632167813</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3319,19 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>53.65602513333734</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>1.799772605716619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3712,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>30.87238256912024</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.0291980517616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3946,13 +3948,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>113.954991851706</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.07916359105462</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1575.942324366272</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E2" t="n">
         <v>1190.154071768027</v>
@@ -4322,58 +4324,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612893</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.840931351814</v>
+        <v>2307.521619291001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1962.542164430393</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4497,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V4" t="n">
-        <v>666.2025176122982</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753375</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="X4" t="n">
-        <v>148.7957966773202</v>
+        <v>433.5218823578557</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694472</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.606831754061</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>736.8185791558162</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>325.8326743662087</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4568,7 +4570,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4643,22 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>517.4719255574712</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>460.8443805240842</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>541.9536817013565</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>541.9536817013565</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W7" t="n">
-        <v>252.5365116643958</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>699.1203903877109</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565137</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624726</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605071</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629259</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>639.3706644025392</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C10" t="n">
-        <v>639.3706644025392</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>639.3706644025392</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025392</v>
+        <v>652.6215702167859</v>
       </c>
       <c r="U10" t="n">
-        <v>639.3706644025392</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="V10" t="n">
-        <v>639.3706644025392</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="W10" t="n">
-        <v>639.3706644025392</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="X10" t="n">
-        <v>639.3706644025392</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="Y10" t="n">
-        <v>639.3706644025392</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2387.388512467612</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2311.62586152507</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2092.024396548011</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1802.949169892209</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1548.264681686322</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.847511649361</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1030.857960751344</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>810.0653816078141</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
         <v>407.9027098310023</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>984.5772922261132</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>815.6411092982063</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>665.5244698858705</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>517.6113763034774</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>370.721428805567</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2237.774446768174</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2018.172981791115</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.097755135313</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5738,25 +5740,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W22" t="n">
-        <v>3744.978273055629</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>779.6143379232836</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,52 +5986,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969303</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2824.769373306003</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C25" t="n">
-        <v>2728.681365661313</v>
+        <v>853.9360528261844</v>
       </c>
       <c r="D25" t="n">
-        <v>2728.681365661313</v>
+        <v>703.8194134138487</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.19996817779</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279773</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136243</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6248,25 +6250,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>94.56320294380259</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>244.2098454714573</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714573</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>878.3568999154069</v>
+        <v>1097.958364892466</v>
       </c>
       <c r="C28" t="n">
-        <v>709.4207169875</v>
+        <v>929.0221819645594</v>
       </c>
       <c r="D28" t="n">
-        <v>559.3040775751642</v>
+        <v>778.9055425522237</v>
       </c>
       <c r="E28" t="n">
-        <v>411.3909839927711</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>264.5010364948607</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>264.5010364948607</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6412,22 +6414,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>547.5889719879183</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>400.6990244900079</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>233.5029252048878</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6923,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6932,16 +6934,16 @@
         <v>93.8166630479719</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969303</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>2978.516248701936</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>2978.516248701936</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>2828.3996092896</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>2680.486515707207</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>2533.596568209296</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="38">
@@ -7178,34 +7180,34 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7257,19 +7259,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
         <v>343.0994656851783</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7484,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N42" t="n">
         <v>1344.266747951537</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578601</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,16 +7666,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>47.04243616700597</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>123.7828069546817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>112.9489693570391</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.30478226780076</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>83.27114962944248</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>101.1181252153545</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>72.11969353038459</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>75.0369752643406</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.7017074173493825</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>52.58301945236944</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>127.2568112467068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>258.8387309000589</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.27114962944256</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>111.8681131589315</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>221.2652607547078</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>172.2294825375381</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>148.7507642442407</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26319,13 @@
         <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
@@ -26338,19 +26340,19 @@
         <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365055</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189191</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26448,7 +26450,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26457,7 +26459,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083975</v>
+        <v>-832389.9260083976</v>
       </c>
       <c r="C6" t="n">
         <v>496354.8197191949</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191952</v>
+        <v>496354.8197191948</v>
       </c>
       <c r="E6" t="n">
-        <v>243493.034133351</v>
+        <v>243493.0341333512</v>
       </c>
       <c r="F6" t="n">
-        <v>568905.4959407063</v>
+        <v>568905.4959407066</v>
       </c>
       <c r="G6" t="n">
         <v>568905.4959407065</v>
@@ -26543,25 +26545,25 @@
         <v>568905.4959407069</v>
       </c>
       <c r="J6" t="n">
-        <v>351374.2935434291</v>
+        <v>351374.2935434292</v>
       </c>
       <c r="K6" t="n">
+        <v>568905.4959407066</v>
+      </c>
+      <c r="L6" t="n">
+        <v>568905.4959407066</v>
+      </c>
+      <c r="M6" t="n">
+        <v>483850.4680051946</v>
+      </c>
+      <c r="N6" t="n">
         <v>568905.4959407065</v>
       </c>
-      <c r="L6" t="n">
-        <v>568905.4959407068</v>
-      </c>
-      <c r="M6" t="n">
-        <v>483850.4680051949</v>
-      </c>
-      <c r="N6" t="n">
-        <v>568905.4959407069</v>
-      </c>
       <c r="O6" t="n">
+        <v>568905.4959407062</v>
+      </c>
+      <c r="P6" t="n">
         <v>568905.4959407066</v>
-      </c>
-      <c r="P6" t="n">
-        <v>568905.4959407065</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>275.1696129875926</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.772159403847468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,7 +27554,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>48.34734909959136</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>137.1238099094094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>154.1943732987685</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>17.07188943047112</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>111.1855515155747</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>41.54550410914683</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>290.3129182374929</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>216.8329875837094</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28016,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>35.50587135219722</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>143.735193362226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31841,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>307.3280120589134</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32089,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.2560498238277</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>454.5606621218849</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>353.3934907042769</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32728,7 +32730,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043726</v>
@@ -32783,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,25 +32794,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>430.4001870301144</v>
+        <v>581.2949959490409</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,19 +33022,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>100.2764607028593</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>632.587927456874</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,7 +33043,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33193,7 +33195,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
@@ -33257,19 +33259,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>579.5299594447131</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,19 +33496,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,13 +33742,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33758,7 +33760,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33898,7 +33900,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175677</v>
@@ -33977,7 +33979,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33989,10 +33991,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34205,22 +34207,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>288.8958573929167</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>307.9814458135827</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.3462379728918</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35737,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.2742757378062</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>316.7192231475259</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>219.4190832899467</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36376,7 +36378,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>291.8458072502402</v>
+        <v>442.7406161691667</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7540807028593007</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348556</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,7 +36691,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>440.9755796648388</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,10 +36928,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37163,10 +37165,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>477.985332142731</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M38" t="n">
         <v>735.300110790295</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,10 +37639,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>157.5541453095834</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>169.4270660337085</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2964908.55564383</v>
+        <v>2960895.945629838</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.02250045837865</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>94.56148769087646</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414557</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.57983363108005</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>203.7902942242366</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>62.07870293839724</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>332.1690792869419</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
-        <v>56.06126958305316</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>169.4049510723442</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>58.28185552386356</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>75.81375591394324</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187843</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.16673120696609</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788178581</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>185.404873121236</v>
       </c>
       <c r="X16" t="n">
-        <v>14.73874327217528</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>52.57516893522976</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>202.9133247598017</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>142.3575218158273</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>71.39698738222857</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>145.7322552292198</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>27.68426743653215</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.0235632167813</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>238.8356740282675</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>53.65602513333734</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>30.87238256912024</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>113.954991851706</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>32.27552175740387</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>212.3267021497101</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1917.382287315189</v>
+        <v>1175.300932605791</v>
       </c>
       <c r="C2" t="n">
-        <v>1548.419770374778</v>
+        <v>806.3384156653794</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>806.3384156653794</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>806.3384156653794</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>799.392914916176</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>384.3204647611724</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>86.73686436993967</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X2" t="n">
-        <v>2307.521619291001</v>
+        <v>1952.040104645725</v>
       </c>
       <c r="Y2" t="n">
-        <v>1917.382287315189</v>
+        <v>1561.900772669913</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4433,28 +4433,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>433.5218823578557</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>433.5218823578557</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>433.5218823578557</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.7293032143256</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1252.833343223198</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>883.8708262827865</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>883.8708262827865</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>883.8708262827865</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W5" t="n">
-        <v>2420.282606282261</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2420.282606282261</v>
+        <v>2029.572515263132</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>1639.43318328732</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.4719255574712</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>460.8443805240842</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1986.901740067214</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.5187033424295</v>
+        <v>739.2385409879453</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>570.3023580600384</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>420.1857186477026</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>272.2726250653095</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4989,25 +4989,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>652.6215702167859</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>363.5187033424295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>363.5187033424295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>363.5187033424295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>363.5187033424295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>363.5187033424295</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057155</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,16 +5366,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>1129.396576145015</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014847</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.5772922261132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>815.6411092982063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>665.5244698858705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>517.6113763034774</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>370.721428805567</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349513</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>779.6143379232836</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1772.498126207679</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1517.813638001792</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1228.396467964831</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X22" t="n">
-        <v>1000.406917066814</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y22" t="n">
-        <v>779.6143379232836</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>867.8220324314346</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1022.872235754091</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>853.9360528261844</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>703.8194134138487</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1653.302830625878</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1425.313279727861</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.520700584331</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6217,25 +6217,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1097.958364892466</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>929.0221819645594</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>778.9055425522237</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934014</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1405.737459147272</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1177.747908249255</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>956.9553291057244</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6718,19 +6718,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,22 +6773,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C34" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>695.5020655703114</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>547.5889719879183</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>400.6990244900079</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>233.5029252048878</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1447.137698270597</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1157.720528233637</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1337.934786622704</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2313.46766635706</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2546.729326731942</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2978.516248701936</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>2978.516248701936</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D37" t="n">
-        <v>2828.3996092896</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2680.486515707207</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2533.596568209296</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430193</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>3160.164713532175</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,28 +7642,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2414.36154645157</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2125.286319795768</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V46" t="n">
-        <v>1870.601831589881</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.18466155292</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>105.2672314396031</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194314</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>101.118125215355</v>
       </c>
       <c r="X16" t="n">
-        <v>210.9709121168619</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>83.27114962944248</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>144.1654765207637</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>75.0369752643406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7017074173493825</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24657,7 +24657,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>258.8387309000589</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.27114962944256</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>13.30196929556047</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>111.8681131589315</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>221.2652607547078</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>172.2294825375381</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>148.7507642442407</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>74.19629618688089</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365052</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.609736506</v>
-      </c>
       <c r="J2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="O2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405244</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189208</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189191</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26447,10 +26447,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
+        <v>16046.58397189204</v>
+      </c>
+      <c r="M4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189192</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083976</v>
+        <v>-832389.9260083979</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.8197191949</v>
+        <v>496354.8197191952</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191948</v>
+        <v>496354.8197191951</v>
       </c>
       <c r="E6" t="n">
-        <v>243493.0341333512</v>
+        <v>243145.6548789945</v>
       </c>
       <c r="F6" t="n">
-        <v>568905.4959407066</v>
+        <v>568558.1166863493</v>
       </c>
       <c r="G6" t="n">
-        <v>568905.4959407065</v>
+        <v>568558.1166863496</v>
       </c>
       <c r="H6" t="n">
-        <v>568905.4959407065</v>
+        <v>568558.1166863496</v>
       </c>
       <c r="I6" t="n">
-        <v>568905.4959407069</v>
+        <v>568558.1166863495</v>
       </c>
       <c r="J6" t="n">
-        <v>351374.2935434292</v>
+        <v>351026.914289072</v>
       </c>
       <c r="K6" t="n">
-        <v>568905.4959407066</v>
+        <v>568558.1166863497</v>
       </c>
       <c r="L6" t="n">
-        <v>568905.4959407066</v>
+        <v>568558.1166863496</v>
       </c>
       <c r="M6" t="n">
-        <v>483850.4680051946</v>
+        <v>483503.0887508379</v>
       </c>
       <c r="N6" t="n">
-        <v>568905.4959407065</v>
+        <v>568558.1166863497</v>
       </c>
       <c r="O6" t="n">
-        <v>568905.4959407062</v>
+        <v>568558.1166863496</v>
       </c>
       <c r="P6" t="n">
-        <v>568905.4959407066</v>
+        <v>568558.1166863495</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,40 +26968,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>21.55442931454727</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>275.1696129875926</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754778</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>48.34734909959136</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>344.7973428033142</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>17.07188943047112</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
-        <v>111.1855515155747</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>307.2767095024427</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.8329875837094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>143.735193362226</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>403.8524967138027</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>353.3934907042769</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>581.2949959490409</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>632.587927456874</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,16 +33286,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>152.0754244981384</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>288.8958573929167</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>307.9814458135827</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>272.5107846304694</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>219.4190832899467</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>442.7406161691667</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>490.4538935348556</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>161.9999866016179</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.395920534174421</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>157.5541453095834</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>169.4270660337085</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2960895.945629838</v>
+        <v>2962656.475932622</v>
       </c>
     </row>
     <row r="7">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>76.97130521239144</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>20.02250045837865</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414557</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363108005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>75.94848555066385</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>62.07870293839724</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>41.44059585273762</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.0880274467727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45803047044427</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.4571321610379</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>184.644893949213</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386356</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>58.28185552386313</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187843</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788178581</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>164.1303830823236</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>185.404873121236</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>82.4729044930077</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>142.3575218158273</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>271.1749250822257</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>218.6444667192159</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>238.8356740282675</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>78.9105100867805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757823</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,19 +4191,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>212.3267021497101</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.300932605791</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C2" t="n">
-        <v>806.3384156653794</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D2" t="n">
-        <v>806.3384156653794</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E2" t="n">
-        <v>806.3384156653794</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>799.392914916176</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>384.3204647611724</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>86.73686436993967</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176919</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906804</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645725</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.900772669913</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="3">
@@ -4406,34 +4406,34 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
         <v>2435.471302619336</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C4" t="n">
-        <v>825.351820332246</v>
+        <v>751.9508228902777</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199102</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3220873375171</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223198</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>883.8708262827865</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>883.8708262827865</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>883.8708262827865</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263132</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.43318328732</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.150970528558</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,10 +4886,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879453</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600384</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477026</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653095</v>
+        <v>272.2726250653091</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673992</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.155464951614</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.45752234853</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192548</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2281.17481784054</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2061.573352863481</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>318.834458340125</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1447.137698270597</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1157.720528233637</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356194</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>115.6734722078199</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510509</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304622</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1508.305175991783</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194314</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.89590291932097</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>101.118125215355</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>83.05123379926114</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>144.1654765207637</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24657,7 +24657,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>15.00954930701846</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>7.065188669821225</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>13.30196929556047</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>69.70496293143185</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>74.19629618688089</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405244</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189208</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26447,7 +26447,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083979</v>
+        <v>-832389.9260083972</v>
       </c>
       <c r="C6" t="n">
+        <v>496354.8197191947</v>
+      </c>
+      <c r="D6" t="n">
         <v>496354.8197191952</v>
       </c>
-      <c r="D6" t="n">
-        <v>496354.8197191951</v>
-      </c>
       <c r="E6" t="n">
-        <v>243145.6548789945</v>
+        <v>243458.2962079153</v>
       </c>
       <c r="F6" t="n">
-        <v>568558.1166863493</v>
+        <v>568870.7580152707</v>
       </c>
       <c r="G6" t="n">
-        <v>568558.1166863496</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="H6" t="n">
-        <v>568558.1166863496</v>
+        <v>568870.7580152709</v>
       </c>
       <c r="I6" t="n">
-        <v>568558.1166863495</v>
+        <v>568870.7580152709</v>
       </c>
       <c r="J6" t="n">
-        <v>351026.914289072</v>
+        <v>351339.5556179932</v>
       </c>
       <c r="K6" t="n">
-        <v>568558.1166863497</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="L6" t="n">
-        <v>568558.1166863496</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="M6" t="n">
-        <v>483503.0887508379</v>
+        <v>483815.7300797589</v>
       </c>
       <c r="N6" t="n">
-        <v>568558.1166863497</v>
+        <v>568870.7580152709</v>
       </c>
       <c r="O6" t="n">
-        <v>568558.1166863496</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="P6" t="n">
-        <v>568558.1166863495</v>
+        <v>568870.7580152709</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>304.9590648598704</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.55442931454727</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754778</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>72.66698746754851</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>344.7973428033142</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>344.797342803316</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351646</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>94.15744254776808</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.2767095024427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>197.2854761230488</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351647</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>38.07056488597499</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558027</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113583</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
